--- a/Consultant_Active_Reports/Active_Candidates_Harry_Thornton.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Harry_Thornton.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rebecca Hagemann</t>
+          <t>Amra Khan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Amra Khan</t>
+          <t>Rebecca Hagemann</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/Consultant_Active_Reports/Active_Candidates_Harry_Thornton.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Harry_Thornton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,51 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>794</v>
+        <v>840</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Honeycomb</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VP EMEA</t>
+          <t>Head of EMEA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Laura Cleaver</t>
+          <t>Sam Wallis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>840</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blockaid</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Head of EMEA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sam Wallis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
